--- a/Greengarden/Ressources/Travaux/Back end/Scripts/CA fournisseurs.xlsx
+++ b/Greengarden/Ressources/Travaux/Back end/Scripts/CA fournisseurs.xlsx
@@ -36,9 +36,6 @@
     <t>select sum(prixAchat) as 'CA HT' from produit;</t>
   </si>
   <si>
-    <t>Chiffre d'affaire total des fournisseurs</t>
-  </si>
-  <si>
     <t>Chiffre d'affaire par fournisseur</t>
   </si>
   <si>
@@ -88,6 +85,9 @@
   </si>
   <si>
     <t>376.00</t>
+  </si>
+  <si>
+    <t>Chiffre d'affaire total HT des fournisseurs</t>
   </si>
 </sst>
 </file>
@@ -917,7 +917,7 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -927,7 +927,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
@@ -946,18 +946,18 @@
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
@@ -967,7 +967,7 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
@@ -977,7 +977,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>0</v>
@@ -985,58 +985,58 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
